--- a/natmiOut/OldD2/LR-pairs_lrc2p/Tgfb3-Tgfbr3.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Tgfb3-Tgfbr3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -80,6 +80,9 @@
   </si>
   <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>M1</t>
   </si>
   <si>
     <t>M2</t>
@@ -452,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T26"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.08819764926046</v>
+        <v>1.095295</v>
       </c>
       <c r="H2">
-        <v>1.08819764926046</v>
+        <v>2.19059</v>
       </c>
       <c r="I2">
-        <v>0.03993858938256468</v>
+        <v>0.03669138229291869</v>
       </c>
       <c r="J2">
-        <v>0.03993858938256468</v>
+        <v>0.02977214083056144</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>35.4678296016328</v>
+        <v>35.789624</v>
       </c>
       <c r="N2">
-        <v>35.4678296016328</v>
+        <v>71.57924800000001</v>
       </c>
       <c r="O2">
-        <v>0.2710471872946258</v>
+        <v>0.258139457682779</v>
       </c>
       <c r="P2">
-        <v>0.2710471872946258</v>
+        <v>0.1993778771086309</v>
       </c>
       <c r="Q2">
-        <v>38.59600879686737</v>
+        <v>39.20019621908</v>
       </c>
       <c r="R2">
-        <v>38.59600879686737</v>
+        <v>156.80078487632</v>
       </c>
       <c r="S2">
-        <v>0.01082524231665916</v>
+        <v>0.00947149352672555</v>
       </c>
       <c r="T2">
-        <v>0.01082524231665916</v>
+        <v>0.005935906235776531</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.08819764926046</v>
+        <v>1.095295</v>
       </c>
       <c r="H3">
-        <v>1.08819764926046</v>
+        <v>2.19059</v>
       </c>
       <c r="I3">
-        <v>0.03993858938256468</v>
+        <v>0.03669138229291869</v>
       </c>
       <c r="J3">
-        <v>0.03993858938256468</v>
+        <v>0.02977214083056144</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>55.0641994299568</v>
+        <v>60.113367</v>
       </c>
       <c r="N3">
-        <v>55.0641994299568</v>
+        <v>180.340101</v>
       </c>
       <c r="O3">
-        <v>0.4208037690423842</v>
+        <v>0.4335790718803266</v>
       </c>
       <c r="P3">
-        <v>0.4208037690423842</v>
+        <v>0.5023219368682956</v>
       </c>
       <c r="Q3">
-        <v>59.92073237808815</v>
+        <v>65.841870308265</v>
       </c>
       <c r="R3">
-        <v>59.92073237808815</v>
+        <v>395.05122184959</v>
       </c>
       <c r="S3">
-        <v>0.01680630894241937</v>
+        <v>0.01590861548056994</v>
       </c>
       <c r="T3">
-        <v>0.01680630894241937</v>
+        <v>0.01495519944672329</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.08819764926046</v>
+        <v>1.095295</v>
       </c>
       <c r="H4">
-        <v>1.08819764926046</v>
+        <v>2.19059</v>
       </c>
       <c r="I4">
-        <v>0.03993858938256468</v>
+        <v>0.03669138229291869</v>
       </c>
       <c r="J4">
-        <v>0.03993858938256468</v>
+        <v>0.02977214083056144</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.156963783870009</v>
+        <v>0.2072186666666667</v>
       </c>
       <c r="N4">
-        <v>0.156963783870009</v>
+        <v>0.621656</v>
       </c>
       <c r="O4">
-        <v>0.00119952623554752</v>
+        <v>0.001494603973349423</v>
       </c>
       <c r="P4">
-        <v>0.00119952623554752</v>
+        <v>0.001731569652308208</v>
       </c>
       <c r="Q4">
-        <v>0.1708076206263707</v>
+        <v>0.2269655695066666</v>
       </c>
       <c r="R4">
-        <v>0.1708076206263707</v>
+        <v>1.36179341704</v>
       </c>
       <c r="S4">
-        <v>4.790738577514597E-05</v>
+        <v>5.483908576267894E-05</v>
       </c>
       <c r="T4">
-        <v>4.790738577514597E-05</v>
+        <v>5.155253554644628E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.08819764926046</v>
+        <v>1.095295</v>
       </c>
       <c r="H5">
-        <v>1.08819764926046</v>
+        <v>2.19059</v>
       </c>
       <c r="I5">
-        <v>0.03993858938256468</v>
+        <v>0.03669138229291869</v>
       </c>
       <c r="J5">
-        <v>0.03993858938256468</v>
+        <v>0.02977214083056144</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>20.9395272275958</v>
+        <v>21.40334366666667</v>
       </c>
       <c r="N5">
-        <v>20.9395272275958</v>
+        <v>64.210031</v>
       </c>
       <c r="O5">
-        <v>0.1600210676003077</v>
+        <v>0.1543756795743782</v>
       </c>
       <c r="P5">
-        <v>0.1600210676003077</v>
+        <v>0.178851553034748</v>
       </c>
       <c r="Q5">
-        <v>22.78634430569515</v>
+        <v>23.44297530138167</v>
       </c>
       <c r="R5">
-        <v>22.78634430569515</v>
+        <v>140.65785180829</v>
       </c>
       <c r="S5">
-        <v>0.006391015711448313</v>
+        <v>0.00566425707599263</v>
       </c>
       <c r="T5">
-        <v>0.006391015711448313</v>
+        <v>0.005324793624715145</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
         <v>25</v>
       </c>
-      <c r="C6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.08819764926046</v>
+        <v>1.095295</v>
       </c>
       <c r="H6">
-        <v>1.08819764926046</v>
+        <v>2.19059</v>
       </c>
       <c r="I6">
-        <v>0.03993858938256468</v>
+        <v>0.03669138229291869</v>
       </c>
       <c r="J6">
-        <v>0.03993858938256468</v>
+        <v>0.02977214083056144</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>19.2262951485134</v>
+        <v>21.1309775</v>
       </c>
       <c r="N6">
-        <v>19.2262951485134</v>
+        <v>42.261955</v>
       </c>
       <c r="O6">
-        <v>0.1469284498271347</v>
+        <v>0.1524111868891667</v>
       </c>
       <c r="P6">
-        <v>0.1469284498271347</v>
+        <v>0.1177170633360173</v>
       </c>
       <c r="Q6">
-        <v>20.92200918460007</v>
+        <v>23.1446540008625</v>
       </c>
       <c r="R6">
-        <v>20.92200918460007</v>
+        <v>92.57861600344999</v>
       </c>
       <c r="S6">
-        <v>0.005868115026262689</v>
+        <v>0.005592177123867891</v>
       </c>
       <c r="T6">
-        <v>0.005868115026262689</v>
+        <v>0.003504688987800027</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +838,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>9.91144409014292</v>
+        <v>11.02740366666667</v>
       </c>
       <c r="H7">
-        <v>9.91144409014292</v>
+        <v>33.082211</v>
       </c>
       <c r="I7">
-        <v>0.3637658066744446</v>
+        <v>0.3694079527725407</v>
       </c>
       <c r="J7">
-        <v>0.3637658066744446</v>
+        <v>0.4496177946938262</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>35.4678296016328</v>
+        <v>35.789624</v>
       </c>
       <c r="N7">
-        <v>35.4678296016328</v>
+        <v>71.57924800000001</v>
       </c>
       <c r="O7">
-        <v>0.2710471872946258</v>
+        <v>0.258139457682779</v>
       </c>
       <c r="P7">
-        <v>0.2710471872946258</v>
+        <v>0.1993778771086309</v>
       </c>
       <c r="Q7">
-        <v>351.5374100952995</v>
+        <v>394.6666309262214</v>
       </c>
       <c r="R7">
-        <v>351.5374100952995</v>
+        <v>2367.999785557328</v>
       </c>
       <c r="S7">
-        <v>0.09859769873306881</v>
+        <v>0.09535876859240928</v>
       </c>
       <c r="T7">
-        <v>0.09859769873306881</v>
+        <v>0.08964384141631931</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>9.91144409014292</v>
+        <v>11.02740366666667</v>
       </c>
       <c r="H8">
-        <v>9.91144409014292</v>
+        <v>33.082211</v>
       </c>
       <c r="I8">
-        <v>0.3637658066744446</v>
+        <v>0.3694079527725407</v>
       </c>
       <c r="J8">
-        <v>0.3637658066744446</v>
+        <v>0.4496177946938262</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>55.0641994299568</v>
+        <v>60.113367</v>
       </c>
       <c r="N8">
-        <v>55.0641994299568</v>
+        <v>180.340101</v>
       </c>
       <c r="O8">
-        <v>0.4208037690423842</v>
+        <v>0.4335790718803266</v>
       </c>
       <c r="P8">
-        <v>0.4208037690423842</v>
+        <v>0.5023219368682956</v>
       </c>
       <c r="Q8">
-        <v>545.7657340184965</v>
+        <v>662.894363671479</v>
       </c>
       <c r="R8">
-        <v>545.7657340184965</v>
+        <v>5966.049273043312</v>
       </c>
       <c r="S8">
-        <v>0.1530740224973496</v>
+        <v>0.1601675573083297</v>
       </c>
       <c r="T8">
-        <v>0.1530740224973496</v>
+        <v>0.2258528814810545</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>9.91144409014292</v>
+        <v>11.02740366666667</v>
       </c>
       <c r="H9">
-        <v>9.91144409014292</v>
+        <v>33.082211</v>
       </c>
       <c r="I9">
-        <v>0.3637658066744446</v>
+        <v>0.3694079527725407</v>
       </c>
       <c r="J9">
-        <v>0.3637658066744446</v>
+        <v>0.4496177946938262</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.156963783870009</v>
+        <v>0.2072186666666667</v>
       </c>
       <c r="N9">
-        <v>0.156963783870009</v>
+        <v>0.621656</v>
       </c>
       <c r="O9">
-        <v>0.00119952623554752</v>
+        <v>0.001494603973349423</v>
       </c>
       <c r="P9">
-        <v>0.00119952623554752</v>
+        <v>0.001731569652308208</v>
       </c>
       <c r="Q9">
-        <v>1.555737768004871</v>
+        <v>2.285083884601778</v>
       </c>
       <c r="R9">
-        <v>1.555737768004871</v>
+        <v>20.565754961416</v>
       </c>
       <c r="S9">
-        <v>0.0004363466287011035</v>
+        <v>0.0005521185940007155</v>
       </c>
       <c r="T9">
-        <v>0.0004363466287011035</v>
+        <v>0.0007785445284295721</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>9.91144409014292</v>
+        <v>11.02740366666667</v>
       </c>
       <c r="H10">
-        <v>9.91144409014292</v>
+        <v>33.082211</v>
       </c>
       <c r="I10">
-        <v>0.3637658066744446</v>
+        <v>0.3694079527725407</v>
       </c>
       <c r="J10">
-        <v>0.3637658066744446</v>
+        <v>0.4496177946938262</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>20.9395272275958</v>
+        <v>21.40334366666667</v>
       </c>
       <c r="N10">
-        <v>20.9395272275958</v>
+        <v>64.210031</v>
       </c>
       <c r="O10">
-        <v>0.1600210676003077</v>
+        <v>0.1543756795743782</v>
       </c>
       <c r="P10">
-        <v>0.1600210676003077</v>
+        <v>0.178851553034748</v>
       </c>
       <c r="Q10">
-        <v>207.5409533903411</v>
+        <v>236.0233104287268</v>
       </c>
       <c r="R10">
-        <v>207.5409533903411</v>
+        <v>2124.209793858541</v>
       </c>
       <c r="S10">
-        <v>0.05821019274053174</v>
+        <v>0.05702760374944078</v>
       </c>
       <c r="T10">
-        <v>0.05821019274053174</v>
+        <v>0.08041484085304929</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
         <v>25</v>
       </c>
-      <c r="C11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" t="s">
-        <v>24</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>9.91144409014292</v>
+        <v>11.02740366666667</v>
       </c>
       <c r="H11">
-        <v>9.91144409014292</v>
+        <v>33.082211</v>
       </c>
       <c r="I11">
-        <v>0.3637658066744446</v>
+        <v>0.3694079527725407</v>
       </c>
       <c r="J11">
-        <v>0.3637658066744446</v>
+        <v>0.4496177946938262</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>19.2262951485134</v>
+        <v>21.1309775</v>
       </c>
       <c r="N11">
-        <v>19.2262951485134</v>
+        <v>42.261955</v>
       </c>
       <c r="O11">
-        <v>0.1469284498271347</v>
+        <v>0.1524111868891667</v>
       </c>
       <c r="P11">
-        <v>0.1469284498271347</v>
+        <v>0.1177170633360173</v>
       </c>
       <c r="Q11">
-        <v>190.5603494250767</v>
+        <v>233.0198187637508</v>
       </c>
       <c r="R11">
-        <v>190.5603494250767</v>
+        <v>1398.118912582505</v>
       </c>
       <c r="S11">
-        <v>0.0534475460747933</v>
+        <v>0.05630190452836016</v>
       </c>
       <c r="T11">
-        <v>0.0534475460747933</v>
+        <v>0.05292768641497356</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,61 +1148,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.684184478640534</v>
+        <v>0.2940173333333334</v>
       </c>
       <c r="H12">
-        <v>0.684184478640534</v>
+        <v>0.8820520000000001</v>
       </c>
       <c r="I12">
-        <v>0.02511066162743388</v>
+        <v>0.009849312174416792</v>
       </c>
       <c r="J12">
-        <v>0.02511066162743388</v>
+        <v>0.01198790114255903</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>35.4678296016328</v>
+        <v>35.789624</v>
       </c>
       <c r="N12">
-        <v>35.4678296016328</v>
+        <v>71.57924800000001</v>
       </c>
       <c r="O12">
-        <v>0.2710471872946258</v>
+        <v>0.258139457682779</v>
       </c>
       <c r="P12">
-        <v>0.2710471872946258</v>
+        <v>0.1993778771086309</v>
       </c>
       <c r="Q12">
-        <v>24.26653850450444</v>
+        <v>10.52276980948267</v>
       </c>
       <c r="R12">
-        <v>24.26653850450444</v>
+        <v>63.13661885689601</v>
       </c>
       <c r="S12">
-        <v>0.006806174205223044</v>
+        <v>0.002542496103252343</v>
       </c>
       <c r="T12">
-        <v>0.006806174205223044</v>
+        <v>0.002390122280791549</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,61 +1210,61 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.684184478640534</v>
+        <v>0.2940173333333334</v>
       </c>
       <c r="H13">
-        <v>0.684184478640534</v>
+        <v>0.8820520000000001</v>
       </c>
       <c r="I13">
-        <v>0.02511066162743388</v>
+        <v>0.009849312174416792</v>
       </c>
       <c r="J13">
-        <v>0.02511066162743388</v>
+        <v>0.01198790114255903</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>55.0641994299568</v>
+        <v>60.113367</v>
       </c>
       <c r="N13">
-        <v>55.0641994299568</v>
+        <v>180.340101</v>
       </c>
       <c r="O13">
-        <v>0.4208037690423842</v>
+        <v>0.4335790718803266</v>
       </c>
       <c r="P13">
-        <v>0.4208037690423842</v>
+        <v>0.5023219368682956</v>
       </c>
       <c r="Q13">
-        <v>37.67407057874338</v>
+        <v>17.674371863028</v>
       </c>
       <c r="R13">
-        <v>37.67407057874338</v>
+        <v>159.069346767252</v>
       </c>
       <c r="S13">
-        <v>0.01056666105597215</v>
+        <v>0.004270455631243235</v>
       </c>
       <c r="T13">
-        <v>0.01056666105597215</v>
+        <v>0.006021785720915905</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.684184478640534</v>
+        <v>0.2940173333333334</v>
       </c>
       <c r="H14">
-        <v>0.684184478640534</v>
+        <v>0.8820520000000001</v>
       </c>
       <c r="I14">
-        <v>0.02511066162743388</v>
+        <v>0.009849312174416792</v>
       </c>
       <c r="J14">
-        <v>0.02511066162743388</v>
+        <v>0.01198790114255903</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.156963783870009</v>
+        <v>0.2072186666666667</v>
       </c>
       <c r="N14">
-        <v>0.156963783870009</v>
+        <v>0.621656</v>
       </c>
       <c r="O14">
-        <v>0.00119952623554752</v>
+        <v>0.001494603973349423</v>
       </c>
       <c r="P14">
-        <v>0.00119952623554752</v>
+        <v>0.001731569652308208</v>
       </c>
       <c r="Q14">
-        <v>0.1073921846325476</v>
+        <v>0.06092587979022222</v>
       </c>
       <c r="R14">
-        <v>0.1073921846325476</v>
+        <v>0.548332918112</v>
       </c>
       <c r="S14">
-        <v>3.012089741406333E-05</v>
+        <v>1.472082111064219E-05</v>
       </c>
       <c r="T14">
-        <v>3.012089741406333E-05</v>
+        <v>2.075788581332611E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.684184478640534</v>
+        <v>0.2940173333333334</v>
       </c>
       <c r="H15">
-        <v>0.684184478640534</v>
+        <v>0.8820520000000001</v>
       </c>
       <c r="I15">
-        <v>0.02511066162743388</v>
+        <v>0.009849312174416792</v>
       </c>
       <c r="J15">
-        <v>0.02511066162743388</v>
+        <v>0.01198790114255903</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>20.9395272275958</v>
+        <v>21.40334366666667</v>
       </c>
       <c r="N15">
-        <v>20.9395272275958</v>
+        <v>64.210031</v>
       </c>
       <c r="O15">
-        <v>0.1600210676003077</v>
+        <v>0.1543756795743782</v>
       </c>
       <c r="P15">
-        <v>0.1600210676003077</v>
+        <v>0.178851553034748</v>
       </c>
       <c r="Q15">
-        <v>14.3264995191919</v>
+        <v>6.292954029290223</v>
       </c>
       <c r="R15">
-        <v>14.3264995191919</v>
+        <v>56.636586263612</v>
       </c>
       <c r="S15">
-        <v>0.004018234881772048</v>
+        <v>0.001520494260265789</v>
       </c>
       <c r="T15">
-        <v>0.004018234881772048</v>
+        <v>0.002144054736973712</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
         <v>25</v>
       </c>
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" t="s">
-        <v>24</v>
-      </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.684184478640534</v>
+        <v>0.2940173333333334</v>
       </c>
       <c r="H16">
-        <v>0.684184478640534</v>
+        <v>0.8820520000000001</v>
       </c>
       <c r="I16">
-        <v>0.02511066162743388</v>
+        <v>0.009849312174416792</v>
       </c>
       <c r="J16">
-        <v>0.02511066162743388</v>
+        <v>0.01198790114255903</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>19.2262951485134</v>
+        <v>21.1309775</v>
       </c>
       <c r="N16">
-        <v>19.2262951485134</v>
+        <v>42.261955</v>
       </c>
       <c r="O16">
-        <v>0.1469284498271347</v>
+        <v>0.1524111868891667</v>
       </c>
       <c r="P16">
-        <v>0.1469284498271347</v>
+        <v>0.1177170633360173</v>
       </c>
       <c r="Q16">
-        <v>13.15433272237467</v>
+        <v>6.212873655276667</v>
       </c>
       <c r="R16">
-        <v>13.15433272237467</v>
+        <v>37.27724193166</v>
       </c>
       <c r="S16">
-        <v>0.003689470587052575</v>
+        <v>0.001501145358544782</v>
       </c>
       <c r="T16">
-        <v>0.003689470587052575</v>
+        <v>0.001411180518064535</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,61 +1458,61 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.54014297382051</v>
+        <v>0.7413373333333334</v>
       </c>
       <c r="H17">
-        <v>1.54014297382051</v>
+        <v>2.224012</v>
       </c>
       <c r="I17">
-        <v>0.05652570363817863</v>
+        <v>0.02483412368845492</v>
       </c>
       <c r="J17">
-        <v>0.05652570363817863</v>
+        <v>0.03022637667151709</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>35.4678296016328</v>
+        <v>35.789624</v>
       </c>
       <c r="N17">
-        <v>35.4678296016328</v>
+        <v>71.57924800000001</v>
       </c>
       <c r="O17">
-        <v>0.2710471872946258</v>
+        <v>0.258139457682779</v>
       </c>
       <c r="P17">
-        <v>0.2710471872946258</v>
+        <v>0.1993778771086309</v>
       </c>
       <c r="Q17">
-        <v>54.62552855761786</v>
+        <v>26.53218441716267</v>
       </c>
       <c r="R17">
-        <v>54.62552855761786</v>
+        <v>159.193106502976</v>
       </c>
       <c r="S17">
-        <v>0.01532113298097791</v>
+        <v>0.006410667220964807</v>
       </c>
       <c r="T17">
-        <v>0.01532113298097791</v>
+        <v>0.006026470813452921</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1517,61 +1520,61 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D18" t="s">
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1.54014297382051</v>
+        <v>0.7413373333333334</v>
       </c>
       <c r="H18">
-        <v>1.54014297382051</v>
+        <v>2.224012</v>
       </c>
       <c r="I18">
-        <v>0.05652570363817863</v>
+        <v>0.02483412368845492</v>
       </c>
       <c r="J18">
-        <v>0.05652570363817863</v>
+        <v>0.03022637667151709</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>55.0641994299568</v>
+        <v>60.113367</v>
       </c>
       <c r="N18">
-        <v>55.0641994299568</v>
+        <v>180.340101</v>
       </c>
       <c r="O18">
-        <v>0.4208037690423842</v>
+        <v>0.4335790718803266</v>
       </c>
       <c r="P18">
-        <v>0.4208037690423842</v>
+        <v>0.5023219368682956</v>
       </c>
       <c r="Q18">
-        <v>84.80673986109929</v>
+        <v>44.56428318946801</v>
       </c>
       <c r="R18">
-        <v>84.80673986109929</v>
+        <v>401.078548705212</v>
       </c>
       <c r="S18">
-        <v>0.02378622913871838</v>
+        <v>0.01076755629980152</v>
       </c>
       <c r="T18">
-        <v>0.02378622913871838</v>
+        <v>0.01518337207414713</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1579,61 +1582,61 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C19" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1.54014297382051</v>
+        <v>0.7413373333333334</v>
       </c>
       <c r="H19">
-        <v>1.54014297382051</v>
+        <v>2.224012</v>
       </c>
       <c r="I19">
-        <v>0.05652570363817863</v>
+        <v>0.02483412368845492</v>
       </c>
       <c r="J19">
-        <v>0.05652570363817863</v>
+        <v>0.03022637667151709</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.156963783870009</v>
+        <v>0.2072186666666667</v>
       </c>
       <c r="N19">
-        <v>0.156963783870009</v>
+        <v>0.621656</v>
       </c>
       <c r="O19">
-        <v>0.00119952623554752</v>
+        <v>0.001494603973349423</v>
       </c>
       <c r="P19">
-        <v>0.00119952623554752</v>
+        <v>0.001731569652308208</v>
       </c>
       <c r="Q19">
-        <v>0.2417466688716755</v>
+        <v>0.1536189337635556</v>
       </c>
       <c r="R19">
-        <v>0.2417466688716755</v>
+        <v>1.382570403872</v>
       </c>
       <c r="S19">
-        <v>6.780406449677918E-05</v>
+        <v>3.711717993941575E-05</v>
       </c>
       <c r="T19">
-        <v>6.780406449677918E-05</v>
+        <v>5.233907654363578E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1641,61 +1644,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>1.54014297382051</v>
+        <v>0.7413373333333334</v>
       </c>
       <c r="H20">
-        <v>1.54014297382051</v>
+        <v>2.224012</v>
       </c>
       <c r="I20">
-        <v>0.05652570363817863</v>
+        <v>0.02483412368845492</v>
       </c>
       <c r="J20">
-        <v>0.05652570363817863</v>
+        <v>0.03022637667151709</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>20.9395272275958</v>
+        <v>21.40334366666667</v>
       </c>
       <c r="N20">
-        <v>20.9395272275958</v>
+        <v>64.210031</v>
       </c>
       <c r="O20">
-        <v>0.1600210676003077</v>
+        <v>0.1543756795743782</v>
       </c>
       <c r="P20">
-        <v>0.1600210676003077</v>
+        <v>0.178851553034748</v>
       </c>
       <c r="Q20">
-        <v>32.24986573470493</v>
+        <v>15.86709771826356</v>
       </c>
       <c r="R20">
-        <v>32.24986573470493</v>
+        <v>142.803879464372</v>
       </c>
       <c r="S20">
-        <v>0.009045303443039939</v>
+        <v>0.003833784721039392</v>
       </c>
       <c r="T20">
-        <v>0.009045303443039939</v>
+        <v>0.005406034410314108</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1703,61 +1706,61 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
         <v>25</v>
       </c>
-      <c r="C21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" t="s">
-        <v>24</v>
-      </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>1.54014297382051</v>
+        <v>0.7413373333333334</v>
       </c>
       <c r="H21">
-        <v>1.54014297382051</v>
+        <v>2.224012</v>
       </c>
       <c r="I21">
-        <v>0.05652570363817863</v>
+        <v>0.02483412368845492</v>
       </c>
       <c r="J21">
-        <v>0.05652570363817863</v>
+        <v>0.03022637667151709</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>19.2262951485134</v>
+        <v>21.1309775</v>
       </c>
       <c r="N21">
-        <v>19.2262951485134</v>
+        <v>42.261955</v>
       </c>
       <c r="O21">
-        <v>0.1469284498271347</v>
+        <v>0.1524111868891667</v>
       </c>
       <c r="P21">
-        <v>0.1469284498271347</v>
+        <v>0.1177170633360173</v>
       </c>
       <c r="Q21">
-        <v>29.61124338558227</v>
+        <v>15.66518251057667</v>
       </c>
       <c r="R21">
-        <v>29.61124338558227</v>
+        <v>93.99109506346001</v>
       </c>
       <c r="S21">
-        <v>0.008305234010945614</v>
+        <v>0.003784998266709784</v>
       </c>
       <c r="T21">
-        <v>0.008305234010945614</v>
+        <v>0.003558160297059292</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1765,61 +1768,61 @@
         <v>24</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>14.022803067336</v>
+        <v>1.812639666666667</v>
       </c>
       <c r="H22">
-        <v>14.022803067336</v>
+        <v>5.437919000000001</v>
       </c>
       <c r="I22">
-        <v>0.5146592386773783</v>
+        <v>0.06072177355778616</v>
       </c>
       <c r="J22">
-        <v>0.5146592386773783</v>
+        <v>0.07390634043485356</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>35.4678296016328</v>
+        <v>35.789624</v>
       </c>
       <c r="N22">
-        <v>35.4678296016328</v>
+        <v>71.57924800000001</v>
       </c>
       <c r="O22">
-        <v>0.2710471872946258</v>
+        <v>0.258139457682779</v>
       </c>
       <c r="P22">
-        <v>0.2710471872946258</v>
+        <v>0.1993778771086309</v>
       </c>
       <c r="Q22">
-        <v>497.358389729527</v>
+        <v>64.87369211748535</v>
       </c>
       <c r="R22">
-        <v>497.358389729527</v>
+        <v>389.2421527049121</v>
       </c>
       <c r="S22">
-        <v>0.1394969390586969</v>
+        <v>0.01567468569574343</v>
       </c>
       <c r="T22">
-        <v>0.1394969390586969</v>
+        <v>0.01473528926076887</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1827,61 +1830,61 @@
         <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>14.022803067336</v>
+        <v>1.812639666666667</v>
       </c>
       <c r="H23">
-        <v>14.022803067336</v>
+        <v>5.437919000000001</v>
       </c>
       <c r="I23">
-        <v>0.5146592386773783</v>
+        <v>0.06072177355778616</v>
       </c>
       <c r="J23">
-        <v>0.5146592386773783</v>
+        <v>0.07390634043485356</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>55.0641994299568</v>
+        <v>60.113367</v>
       </c>
       <c r="N23">
-        <v>55.0641994299568</v>
+        <v>180.340101</v>
       </c>
       <c r="O23">
-        <v>0.4208037690423842</v>
+        <v>0.4335790718803266</v>
       </c>
       <c r="P23">
-        <v>0.4208037690423842</v>
+        <v>0.5023219368682956</v>
       </c>
       <c r="Q23">
-        <v>772.1544246667994</v>
+        <v>108.963873521091</v>
       </c>
       <c r="R23">
-        <v>772.1544246667994</v>
+        <v>980.6748616898192</v>
       </c>
       <c r="S23">
-        <v>0.2165705474079248</v>
+        <v>0.02632769022211228</v>
       </c>
       <c r="T23">
-        <v>0.2165705474079248</v>
+        <v>0.03712477607408327</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1889,61 +1892,61 @@
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C24" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>14.022803067336</v>
+        <v>1.812639666666667</v>
       </c>
       <c r="H24">
-        <v>14.022803067336</v>
+        <v>5.437919000000001</v>
       </c>
       <c r="I24">
-        <v>0.5146592386773783</v>
+        <v>0.06072177355778616</v>
       </c>
       <c r="J24">
-        <v>0.5146592386773783</v>
+        <v>0.07390634043485356</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.156963783870009</v>
+        <v>0.2072186666666667</v>
       </c>
       <c r="N24">
-        <v>0.156963783870009</v>
+        <v>0.621656</v>
       </c>
       <c r="O24">
-        <v>0.00119952623554752</v>
+        <v>0.001494603973349423</v>
       </c>
       <c r="P24">
-        <v>0.00119952623554752</v>
+        <v>0.001731569652308208</v>
       </c>
       <c r="Q24">
-        <v>2.201072229913027</v>
+        <v>0.3756127748737778</v>
       </c>
       <c r="R24">
-        <v>2.201072229913027</v>
+        <v>3.380514973864</v>
       </c>
       <c r="S24">
-        <v>0.0006173472591604282</v>
+        <v>9.075500402829112E-05</v>
       </c>
       <c r="T24">
-        <v>0.0006173472591604282</v>
+        <v>0.0001279739762101515</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1951,61 +1954,61 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C25" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D25" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>14.022803067336</v>
+        <v>1.812639666666667</v>
       </c>
       <c r="H25">
-        <v>14.022803067336</v>
+        <v>5.437919000000001</v>
       </c>
       <c r="I25">
-        <v>0.5146592386773783</v>
+        <v>0.06072177355778616</v>
       </c>
       <c r="J25">
-        <v>0.5146592386773783</v>
+        <v>0.07390634043485356</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>20.9395272275958</v>
+        <v>21.40334366666667</v>
       </c>
       <c r="N25">
-        <v>20.9395272275958</v>
+        <v>64.210031</v>
       </c>
       <c r="O25">
-        <v>0.1600210676003077</v>
+        <v>0.1543756795743782</v>
       </c>
       <c r="P25">
-        <v>0.1600210676003077</v>
+        <v>0.178851553034748</v>
       </c>
       <c r="Q25">
-        <v>293.6308666356961</v>
+        <v>38.79654972949879</v>
       </c>
       <c r="R25">
-        <v>293.6308666356961</v>
+        <v>349.1689475654891</v>
       </c>
       <c r="S25">
-        <v>0.08235632082351563</v>
+        <v>0.009373965057944746</v>
       </c>
       <c r="T25">
-        <v>0.08235632082351563</v>
+        <v>0.01321826376588835</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2013,61 +2016,371 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
         <v>25</v>
       </c>
-      <c r="C26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" t="s">
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>1.812639666666667</v>
+      </c>
+      <c r="H26">
+        <v>5.437919000000001</v>
+      </c>
+      <c r="I26">
+        <v>0.06072177355778616</v>
+      </c>
+      <c r="J26">
+        <v>0.07390634043485356</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>21.1309775</v>
+      </c>
+      <c r="N26">
+        <v>42.261955</v>
+      </c>
+      <c r="O26">
+        <v>0.1524111868891667</v>
+      </c>
+      <c r="P26">
+        <v>0.1177170633360173</v>
+      </c>
+      <c r="Q26">
+        <v>38.30284801194084</v>
+      </c>
+      <c r="R26">
+        <v>229.817088071645</v>
+      </c>
+      <c r="S26">
+        <v>0.009254677577957405</v>
+      </c>
+      <c r="T26">
+        <v>0.008700037357902911</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>14.880867</v>
+      </c>
+      <c r="H27">
+        <v>29.761734</v>
+      </c>
+      <c r="I27">
+        <v>0.4984954555138826</v>
+      </c>
+      <c r="J27">
+        <v>0.4044894462266826</v>
+      </c>
+      <c r="K27">
+        <v>2</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>35.789624</v>
+      </c>
+      <c r="N27">
+        <v>71.57924800000001</v>
+      </c>
+      <c r="O27">
+        <v>0.258139457682779</v>
+      </c>
+      <c r="P27">
+        <v>0.1993778771086309</v>
+      </c>
+      <c r="Q27">
+        <v>532.580634724008</v>
+      </c>
+      <c r="R27">
+        <v>2130.322538896032</v>
+      </c>
+      <c r="S27">
+        <v>0.1286813465436835</v>
+      </c>
+      <c r="T27">
+        <v>0.08064624710152168</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>14.880867</v>
+      </c>
+      <c r="H28">
+        <v>29.761734</v>
+      </c>
+      <c r="I28">
+        <v>0.4984954555138826</v>
+      </c>
+      <c r="J28">
+        <v>0.4044894462266826</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>60.113367</v>
+      </c>
+      <c r="N28">
+        <v>180.340101</v>
+      </c>
+      <c r="O28">
+        <v>0.4335790718803266</v>
+      </c>
+      <c r="P28">
+        <v>0.5023219368682956</v>
+      </c>
+      <c r="Q28">
+        <v>894.539019249189</v>
+      </c>
+      <c r="R28">
+        <v>5367.234115495134</v>
+      </c>
+      <c r="S28">
+        <v>0.2161371969382699</v>
+      </c>
+      <c r="T28">
+        <v>0.2031839220713715</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>14.880867</v>
+      </c>
+      <c r="H29">
+        <v>29.761734</v>
+      </c>
+      <c r="I29">
+        <v>0.4984954555138826</v>
+      </c>
+      <c r="J29">
+        <v>0.4044894462266826</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>0.2072186666666667</v>
+      </c>
+      <c r="N29">
+        <v>0.621656</v>
+      </c>
+      <c r="O29">
+        <v>0.001494603973349423</v>
+      </c>
+      <c r="P29">
+        <v>0.001731569652308208</v>
+      </c>
+      <c r="Q29">
+        <v>3.083593418583999</v>
+      </c>
+      <c r="R29">
+        <v>18.501560511504</v>
+      </c>
+      <c r="S29">
+        <v>0.0007450532885076796</v>
+      </c>
+      <c r="T29">
+        <v>0.0007004016497650765</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
         <v>24</v>
       </c>
-      <c r="E26">
-        <v>1</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26">
-        <v>14.022803067336</v>
-      </c>
-      <c r="H26">
-        <v>14.022803067336</v>
-      </c>
-      <c r="I26">
-        <v>0.5146592386773783</v>
-      </c>
-      <c r="J26">
-        <v>0.5146592386773783</v>
-      </c>
-      <c r="K26">
-        <v>1</v>
-      </c>
-      <c r="L26">
-        <v>1</v>
-      </c>
-      <c r="M26">
-        <v>19.2262951485134</v>
-      </c>
-      <c r="N26">
-        <v>19.2262951485134</v>
-      </c>
-      <c r="O26">
-        <v>0.1469284498271347</v>
-      </c>
-      <c r="P26">
-        <v>0.1469284498271347</v>
-      </c>
-      <c r="Q26">
-        <v>269.606550582081</v>
-      </c>
-      <c r="R26">
-        <v>269.606550582081</v>
-      </c>
-      <c r="S26">
-        <v>0.07561808412808051</v>
-      </c>
-      <c r="T26">
-        <v>0.07561808412808051</v>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>14.880867</v>
+      </c>
+      <c r="H30">
+        <v>29.761734</v>
+      </c>
+      <c r="I30">
+        <v>0.4984954555138826</v>
+      </c>
+      <c r="J30">
+        <v>0.4044894462266826</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>21.40334366666667</v>
+      </c>
+      <c r="N30">
+        <v>64.210031</v>
+      </c>
+      <c r="O30">
+        <v>0.1543756795743782</v>
+      </c>
+      <c r="P30">
+        <v>0.178851553034748</v>
+      </c>
+      <c r="Q30">
+        <v>318.500310458959</v>
+      </c>
+      <c r="R30">
+        <v>1911.001862753754</v>
+      </c>
+      <c r="S30">
+        <v>0.07695557470969484</v>
+      </c>
+      <c r="T30">
+        <v>0.07234356564380737</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>14.880867</v>
+      </c>
+      <c r="H31">
+        <v>29.761734</v>
+      </c>
+      <c r="I31">
+        <v>0.4984954555138826</v>
+      </c>
+      <c r="J31">
+        <v>0.4044894462266826</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>21.1309775</v>
+      </c>
+      <c r="N31">
+        <v>42.261955</v>
+      </c>
+      <c r="O31">
+        <v>0.1524111868891667</v>
+      </c>
+      <c r="P31">
+        <v>0.1177170633360173</v>
+      </c>
+      <c r="Q31">
+        <v>314.4472657574925</v>
+      </c>
+      <c r="R31">
+        <v>1257.78906302997</v>
+      </c>
+      <c r="S31">
+        <v>0.07597628403372664</v>
+      </c>
+      <c r="T31">
+        <v>0.04761530976021695</v>
       </c>
     </row>
   </sheetData>
